--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,26 +1,310 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Facultate\Semestrul 2\VVSS\Validarea-si-Verificarea-Sistemelor-Software\Docs\Lab01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6191A829-C6C6-4435-A720-9E1E94A6F7D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
+    <sheet name="Architect. Design Phase Defects" sheetId="6" r:id="rId2"/>
+    <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
+    <sheet name="DynamicCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="86">
+  <si>
+    <t>Document  Title:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review date: </t>
+  </si>
+  <si>
+    <t>Reviewer Name:</t>
+  </si>
+  <si>
+    <t>do not print this form</t>
+  </si>
+  <si>
+    <t>Crt. No.</t>
+  </si>
+  <si>
+    <t>Checked Item</t>
+  </si>
+  <si>
+    <t>Doc. page/line</t>
+  </si>
+  <si>
+    <t>Comments/ improvements</t>
+  </si>
+  <si>
+    <t>Effort to review document (hours):</t>
+  </si>
+  <si>
+    <t>Author Name:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author Name: </t>
+  </si>
+  <si>
+    <t>Popescu Ionel</t>
+  </si>
+  <si>
+    <t>Georgescu Anca</t>
+  </si>
+  <si>
+    <t>Firicescu George</t>
+  </si>
+  <si>
+    <t>Requirements Document</t>
+  </si>
+  <si>
+    <t>Architectural Design Document</t>
+  </si>
+  <si>
+    <t>Coding Document</t>
+  </si>
+  <si>
+    <t>Review Form. Coding Defects</t>
+  </si>
+  <si>
+    <t>Review Form. Architectural Design Defects</t>
+  </si>
+  <si>
+    <t>Review Form. Requirements Defects</t>
+  </si>
+  <si>
+    <t>Student 1:</t>
+  </si>
+  <si>
+    <t>Student 2:</t>
+  </si>
+  <si>
+    <t>Student 3:</t>
+  </si>
+  <si>
+    <t>Echipa</t>
+  </si>
+  <si>
+    <t>Grupa</t>
+  </si>
+  <si>
+    <t>Dynamic Code Analysis</t>
+  </si>
+  <si>
+    <t>Tool used:</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>File, Line</t>
+  </si>
+  <si>
+    <t>After/Argument</t>
+  </si>
+  <si>
+    <t>Numele si prenumele</t>
+  </si>
+  <si>
+    <t>Effort to perform dynamic code analysis (hours):</t>
+  </si>
+  <si>
+    <t>Enăchioiu Teofana</t>
+  </si>
+  <si>
+    <t>Enăchioiu Teofana, Făluță Elena Alina</t>
+  </si>
+  <si>
+    <t>26.02.2020</t>
+  </si>
+  <si>
+    <t>Făluță Elena-Alina</t>
+  </si>
+  <si>
+    <t>RO1</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>Ce înseamnă ca un task să fie activ?</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>Se efectuează vreo validare asupra date time-ului?</t>
+  </si>
+  <si>
+    <t>Ce informații afișăm concret pentru un task?</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Nu se specifică tipul de aplicație dorită (web, mobile, desktop)</t>
+  </si>
+  <si>
+    <t>Nu se specifică formatul datelor specificate in fișiere</t>
+  </si>
+  <si>
+    <t>Nu se dau detalii despre interfața cu utilizatorul</t>
+  </si>
+  <si>
+    <t>R03</t>
+  </si>
+  <si>
+    <t>Care sunt avantajele folosirii unui fisier binar? (ex: Alinuta are mere -&gt; 001010100101010101010010010101110101111001011101010010100001010001001010
+01011011010011100001010001010110010011100101101101001110)</t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>Ce se afișează când se deschide aplicația? (Task-uri sau informații pentru un task? )</t>
+  </si>
+  <si>
+    <t>Cât timp se persistă datele?</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>Ce date referitoare la un task putem modifica?</t>
+  </si>
+  <si>
+    <t>Ce  informații se vor afișa despre un task? (Toate sau doar anumite detalii?)</t>
+  </si>
+  <si>
+    <t>Avem condiții pentru ștergerea unui task?</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t>Nu sunt bine evidențiate necesitățile utilizatorului (căutare, filtrare, perioada default de afisare a task-urilor, ordonare)</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>27.02.2020</t>
+  </si>
+  <si>
+    <t>Dacă un task este inactiv, vor fi inactive și repetările lui în zilele următoare?</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>Nu se respectă principiile SOLID. Se pot crea obiecte din orice clasă, de la orice nivel. O clasă are mai multe funcționalități. (NewEditController)  Clasa LinkedTaskList nu este folosită.</t>
+  </si>
+  <si>
+    <t>Toate nivele comunică între ele, ne fiind existentă nici o stratificare. Clasa Main salvează date într-o listă.</t>
+  </si>
+  <si>
+    <t>Nu există metode de set pentru prorpietățile unui task ceea ce împiedică realizarea modificării concrete a acestuia.</t>
+  </si>
+  <si>
+    <t>Clasa NewEditController are o metodă MakeTask() care este ambiguă.</t>
+  </si>
+  <si>
+    <t>Nu există clase sau metode pentru error handling.</t>
+  </si>
+  <si>
+    <t>Nu se respectă pattern-ul Model View Controller și nici cel de Observer.</t>
+  </si>
+  <si>
+    <t>Din numele și metodele prezente în clasa TaskOperations nu se înțelege clar rolul acesteia în aplicație. Folosirea de ObservableList atât aici cât și în Notificator, face ambiguă diferența dintre acestea două și rolul lor, distinct sau nu, în aplicație.</t>
+  </si>
+  <si>
+    <t>Denumirile nu sunt consistente (NewEditController Controller, TaskController), nu sunt sugestive (TaskOperations). Denumirile variabilelor nu sunt consistente. Pentru o listă de task-uri avem denumiril: tasks, savedTaskList)</t>
+  </si>
+  <si>
+    <t>Relațiile de asociere și agregare nu au denumiri.</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>Proprietățile clasei Task sunt în conformitate cu domain model-ul și cerințele.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,18 +312,159 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -49,14 +474,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -79,44 +572,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -144,14 +637,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -179,6 +689,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -190,153 +717,1626 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="21" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="H4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="H5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <f>B10+1</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <f t="shared" ref="B12:B27" si="0">B11+1</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="22" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="H4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="H5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <f>B10+1</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <f t="shared" ref="B12:B26" si="0">B11+1</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="H4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="H5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <f>B10+1</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <f t="shared" ref="B12:B30" si="0">B11+1</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="H4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="H5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <f>B10+1</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <f t="shared" ref="B12:B30" si="0">B11+1</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Facultate\Semestrul 2\VVSS\Validarea-si-Verificarea-Sistemelor-Software\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6191A829-C6C6-4435-A720-9E1E94A6F7D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F5C39B-81CA-4A4B-99A7-130EDB806F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="151">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -290,6 +290,206 @@
   </si>
   <si>
     <t>Proprietățile clasei Task sunt în conformitate cu domain model-ul și cerințele.</t>
+  </si>
+  <si>
+    <t>06.03.2020</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>Logica din metoda isRepeded din clasa Task e inadecvata
+  public boolean isRepeated(){
+         return !(this.interval == 0);
+     }
+ Secventa a fost modifiata astfel: "return this.interval != 0;"</t>
+  </si>
+  <si>
+    <t>Erorile sunt tratate corespunzător.</t>
+  </si>
+  <si>
+    <t>Se aruncă excepții la citire și scriere.</t>
+  </si>
+  <si>
+    <t>Toate excepțiile au mesaje.</t>
+  </si>
+  <si>
+    <t>Parametrul metodei rewriteFile e de tip ObservableList, 
+ iar numele este doar "tasksList" (Clasa TaskIO, directorul model)</t>
+  </si>
+  <si>
+    <t>Numele unor variabile nu respecta un anumit format sau nu sunt destul de sugestive.</t>
+  </si>
+  <si>
+    <t>Remove this "clone" implementation; use a copy constructor or copy factory instead.</t>
+  </si>
+  <si>
+    <t>S-a sters metoda clone() si s-a definit constructorul de copiere</t>
+  </si>
+  <si>
+    <t>Clasa ArrayTasksList continea metoda Clone</t>
+  </si>
+  <si>
+    <t>Model - ArrayTaskList</t>
+  </si>
+  <si>
+    <t>Model - LinkedTasksList</t>
+  </si>
+  <si>
+    <t>Remove this unused private class setTask method.</t>
+  </si>
+  <si>
+    <t>Metoda setTask era definita.</t>
+  </si>
+  <si>
+    <t>S-a sters metoda.</t>
+  </si>
+  <si>
+    <t>Model - Task</t>
+  </si>
+  <si>
+    <t>Refactor this method to reduce its cognitive Complexity form 25 to the 15 allowed.</t>
+  </si>
+  <si>
+    <t>S-a creat  o metoda noua care contine instructiunule celui de-al doilea if.</t>
+  </si>
+  <si>
+    <t>Metoda avea mai multe responsabilitati, ne respectandu-se princiiple SOLID.</t>
+  </si>
+  <si>
+    <t>Make "sdf" an instance variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S-a sters keyword-ul "static" din definirea variabilei </t>
+  </si>
+  <si>
+    <t>private static final SimpleDateFormat sdf;</t>
+  </si>
+  <si>
+    <t>Use the opposite operator ("!=") instead</t>
+  </si>
+  <si>
+    <t>Expresia a fost modificata, pastrandu-se echivalenta logica</t>
+  </si>
+  <si>
+    <t>public boolean isRepeated(){ return !(this.interval == 0); }</t>
+  </si>
+  <si>
+    <t>Model - TaskList</t>
+  </si>
+  <si>
+    <t>Replace this use of System.out or System.err by a logger.</t>
+  </si>
+  <si>
+    <t>S-a adaugat un nou field in clasa ( private static final Logger log = Logger.getLogger(TaskList.class.getName());) si s-a folosit metoda log.info(...) pentru a salva mesajele</t>
+  </si>
+  <si>
+    <t>"iterator" is defined in the "Iterable" interface and can be removed from this class</t>
+  </si>
+  <si>
+    <t>S-a sters metoda abstracta "iterator()"</t>
+  </si>
+  <si>
+    <t>public abstract Iterator&lt;Task&gt; iterator();</t>
+  </si>
+  <si>
+    <t>System.out.println( getTask(i).getTitle());</t>
+  </si>
+  <si>
+    <t>Model - TasksOperations</t>
+  </si>
+  <si>
+    <t>The type of the "tasks" object should be an interface such as "List" rather than the implementation "ArrayList"</t>
+  </si>
+  <si>
+    <t>S-a schimbat tipul obiectului din ArrayList in List</t>
+  </si>
+  <si>
+    <t>Make tasks a static final constant or non-public and provide accessors if needed.</t>
+  </si>
+  <si>
+    <t>public ArrayList&lt;Task&gt; tasks;</t>
+  </si>
+  <si>
+    <t>Field-ul tasks a fost facut privat.</t>
+  </si>
+  <si>
+    <t>Services - DataService</t>
+  </si>
+  <si>
+    <t>Use static access with "java.util.Calendar" for "getInstance"</t>
+  </si>
+  <si>
+    <t>S-a modificat tipul din GeorgianCalendar in Calendar</t>
+  </si>
+  <si>
+    <t>Services - TaskIO</t>
+  </si>
+  <si>
+    <t>Rename this constant name to mathc the regular expression '^[A-Z][A-Z0-9]*(_[A-Z0-9]+)*$'</t>
+  </si>
+  <si>
+    <t>Calendar calendar = GregorianCalendar.getInstance();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denumirile initiale: secondsInDay, secondsInHour, secondsInMin </t>
+  </si>
+  <si>
+    <t>S-au modificat in SECONDS_IN_DAY, SECONDS_IN_HOUR, SECONDS_IN_MIN</t>
+  </si>
+  <si>
+    <t>Change this "try" with a try-with-resources</t>
+  </si>
+  <si>
+    <t>public static void writeBinary(TaskList tasks, File file)throws IOException{ FileOutputStream fos = null; try { fos = new FileOutputStream(file); write(tasks,fos); } catch (IOException e){ log.error("IO exception reading or writing file"); } finally { fos.close(); } }</t>
+  </si>
+  <si>
+    <t>public static void writeBinary(TaskList tasks, File file) throws IOException { try (FileOutputStream fos = new FileOutputStream(file)) { write(tasks, fos); } catch (IOException e) { log.error("IO exception reading or writing file"); } }</t>
+  </si>
+  <si>
+    <t>Define a constant instead of duplicating this literal "IO exception reading or wirting file" 4 times.</t>
+  </si>
+  <si>
+    <t>Fiecare exceptie avea string-ul hardcoded.</t>
+  </si>
+  <si>
+    <t>S-a definit si folosit constanta ERROR_MESSAGE = "IO exception reading or wirting file"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This block of commentsed-out lines of code should be removed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S-a sters comentariul. </t>
+  </si>
+  <si>
+    <t>//Iterable&lt;Task&gt; filtered = tasks.incoming(start, end);</t>
+  </si>
+  <si>
+    <t>Services - TasksService</t>
+  </si>
+  <si>
+    <t>Immediately return this expressin instead of assigning it to the temporaty variable "result"</t>
+  </si>
+  <si>
+    <t>S-a sters variabila locala si s-a returnat direct rezultatul</t>
+  </si>
+  <si>
+    <t>int result = (hours * DateService.MINUTES_IN_HOUR + minutes) * DateService.SECONDS_IN_MINUTE; return result;</t>
   </si>
 </sst>
 </file>
@@ -474,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -543,6 +743,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,8 +1096,8 @@
   </sheetPr>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1661,10 +1870,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1762,7 +1971,9 @@
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="E7" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1779,58 +1990,90 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
-        <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
-        <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B13:B25" si="0">B13+1</f>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
@@ -1838,7 +2081,9 @@
         <v>7</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -1865,7 +2110,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -1893,7 +2138,7 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
@@ -1923,59 +2168,16 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="3">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="1"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1998,16 +2200,15 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" style="6" customWidth="1"/>
+    <col min="3" max="4" width="18" style="6" customWidth="1"/>
     <col min="5" max="5" width="24" style="6" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
     <col min="7" max="8" width="8.88671875" style="6"/>
@@ -2087,237 +2288,363 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="E6" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
+    <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="B10" s="35">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+      <c r="C10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="35">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
+      <c r="C11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="B12" s="35">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+      <c r="C12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="35">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
+      <c r="C13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
+      <c r="C14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="B15" s="35">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
+      <c r="C15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="B16" s="35">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
+      <c r="C16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="35">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
+      <c r="C17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="35">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
+      <c r="C18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="35">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
+      <c r="C19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B20" s="35">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
+      <c r="C20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="35">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="3">
+      <c r="C21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B22" s="35">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
+      <c r="C22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="35">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="3">
+      <c r="C23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B24" s="35">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
+      <c r="B25" s="35">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="3">
+      <c r="B26" s="35">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="3">
+      <c r="B27" s="35">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="3">
+      <c r="B28" s="35">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="3">
+      <c r="B29" s="35">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="3">
+      <c r="B30" s="35">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E31" s="11"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="36"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C32" s="33" t="s">
@@ -2325,7 +2652,9 @@
       </c>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
-      <c r="F32" s="18"/>
+      <c r="F32" s="18">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Facultate\Semestrul 2\VVSS\Validarea-si-Verificarea-Sistemelor-Software\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F5C39B-81CA-4A4B-99A7-130EDB806F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42840E4-856E-438F-905D-4915BD766A7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -702,6 +702,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -743,15 +752,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1117,19 +1117,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>31</v>
@@ -1153,10 +1153,10 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="27"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1171,10 +1171,10 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="29"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1186,19 +1186,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1496,8 +1496,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1516,19 +1516,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>31</v>
@@ -1552,10 +1552,10 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="30"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1570,10 +1570,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="32"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1585,19 +1585,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1893,19 +1893,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>31</v>
@@ -1929,10 +1929,10 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="33"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1947,10 +1947,10 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="35"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1962,19 +1962,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -2048,7 +2048,7 @@
     </row>
     <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
-        <f t="shared" ref="B13:B25" si="0">B13+1</f>
+        <f t="shared" ref="B14:B25" si="0">B13+1</f>
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2200,7 +2200,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -2221,19 +2221,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>31</v>
@@ -2257,8 +2257,8 @@
       <c r="C4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -2273,10 +2273,10 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="24"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -2288,10 +2288,10 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
@@ -2311,7 +2311,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="B10" s="35">
+      <c r="B10" s="21">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2328,7 +2328,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="35">
+      <c r="B11" s="21">
         <f>B10+1</f>
         <v>2</v>
       </c>
@@ -2346,7 +2346,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="B12" s="35">
+      <c r="B12" s="21">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
@@ -2364,7 +2364,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="35">
+      <c r="B13" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2382,7 +2382,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="35">
+      <c r="B14" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2400,7 +2400,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="B15" s="35">
+      <c r="B15" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2418,7 +2418,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="B16" s="35">
+      <c r="B16" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2436,7 +2436,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="35">
+      <c r="B17" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2454,7 +2454,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="35">
+      <c r="B18" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -2472,7 +2472,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="35">
+      <c r="B19" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -2490,7 +2490,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B20" s="35">
+      <c r="B20" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -2508,7 +2508,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="35">
+      <c r="B21" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -2526,7 +2526,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B22" s="35">
+      <c r="B22" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -2544,7 +2544,7 @@
       </c>
     </row>
     <row r="23" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="35">
+      <c r="B23" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -2562,7 +2562,7 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B24" s="35">
+      <c r="B24" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2580,7 +2580,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="35">
+      <c r="B25" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -2590,7 +2590,7 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="35">
+      <c r="B26" s="21">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -2600,7 +2600,7 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="35">
+      <c r="B27" s="21">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -2610,7 +2610,7 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="35">
+      <c r="B28" s="21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -2620,7 +2620,7 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="35">
+      <c r="B29" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -2630,7 +2630,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="35">
+      <c r="B30" s="21">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -2640,18 +2640,18 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="36"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="18">
         <v>2</v>
       </c>
